--- a/Data Exploration/Datasets/RaceEthnic 18 to 64 years.xlsx
+++ b/Data Exploration/Datasets/RaceEthnic 18 to 64 years.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\A\Xingrui_ACS5_EMPLY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DDCFF60-DA94-450D-9EB9-264D05A3EBB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB07D2D4-8E25-40FF-86B0-D3039699509E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="293" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="372" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3779" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4486" uniqueCount="315">
   <si>
     <t>GEOID</t>
   </si>
@@ -1326,8 +1326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CH101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" zoomScale="77" workbookViewId="0">
-      <selection activeCell="AN2" sqref="AN2"/>
+    <sheetView topLeftCell="BW1" zoomScale="77" workbookViewId="0">
+      <selection activeCell="CE1" activeCellId="6" sqref="BS1:BS1048576 BU1:BU1048576 BW1:BW1048576 BY1:BY1048576 CA1:CA1048576 CC1:CC1048576 CE1:CE1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -47677,10 +47677,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{247B89F5-7C01-4611-B0EC-2B2CB97D74A6}">
-  <dimension ref="A1:Q101"/>
+  <dimension ref="A1:X101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q101" sqref="Q101"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -47694,7 +47694,7 @@
     <col min="16" max="16" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -47746,8 +47746,29 @@
       <c r="Q1" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="R1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -47807,8 +47828,29 @@
       <c r="Q2">
         <v>152837</v>
       </c>
+      <c r="R2" t="s">
+        <v>75</v>
+      </c>
+      <c r="S2" t="s">
+        <v>75</v>
+      </c>
+      <c r="T2" t="s">
+        <v>75</v>
+      </c>
+      <c r="U2" t="s">
+        <v>76</v>
+      </c>
+      <c r="V2" t="s">
+        <v>75</v>
+      </c>
+      <c r="W2" t="s">
+        <v>75</v>
+      </c>
+      <c r="X2" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -47868,8 +47910,29 @@
       <c r="Q3">
         <v>528</v>
       </c>
+      <c r="R3" t="s">
+        <v>76</v>
+      </c>
+      <c r="S3" t="s">
+        <v>76</v>
+      </c>
+      <c r="T3" t="s">
+        <v>76</v>
+      </c>
+      <c r="U3" t="s">
+        <v>76</v>
+      </c>
+      <c r="V3" t="s">
+        <v>76</v>
+      </c>
+      <c r="W3" t="s">
+        <v>76</v>
+      </c>
+      <c r="X3" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>80</v>
       </c>
@@ -47929,8 +47992,29 @@
       <c r="Q4">
         <v>176</v>
       </c>
+      <c r="R4" t="s">
+        <v>76</v>
+      </c>
+      <c r="S4" t="s">
+        <v>76</v>
+      </c>
+      <c r="T4" t="s">
+        <v>76</v>
+      </c>
+      <c r="U4" t="s">
+        <v>76</v>
+      </c>
+      <c r="V4" t="s">
+        <v>76</v>
+      </c>
+      <c r="W4" t="s">
+        <v>76</v>
+      </c>
+      <c r="X4" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>82</v>
       </c>
@@ -47990,8 +48074,29 @@
       <c r="Q5">
         <v>570</v>
       </c>
+      <c r="R5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T5" t="s">
+        <v>76</v>
+      </c>
+      <c r="U5" t="s">
+        <v>76</v>
+      </c>
+      <c r="V5" t="s">
+        <v>76</v>
+      </c>
+      <c r="W5" t="s">
+        <v>76</v>
+      </c>
+      <c r="X5" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -48051,8 +48156,29 @@
       <c r="Q6">
         <v>930</v>
       </c>
+      <c r="R6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S6" t="s">
+        <v>76</v>
+      </c>
+      <c r="T6" t="s">
+        <v>76</v>
+      </c>
+      <c r="U6" t="s">
+        <v>76</v>
+      </c>
+      <c r="V6" t="s">
+        <v>76</v>
+      </c>
+      <c r="W6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X6" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>86</v>
       </c>
@@ -48112,8 +48238,29 @@
       <c r="Q7">
         <v>301</v>
       </c>
+      <c r="R7" t="s">
+        <v>76</v>
+      </c>
+      <c r="S7" t="s">
+        <v>76</v>
+      </c>
+      <c r="T7" t="s">
+        <v>76</v>
+      </c>
+      <c r="U7" t="s">
+        <v>76</v>
+      </c>
+      <c r="V7" t="s">
+        <v>76</v>
+      </c>
+      <c r="W7" t="s">
+        <v>76</v>
+      </c>
+      <c r="X7" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>88</v>
       </c>
@@ -48173,8 +48320,29 @@
       <c r="Q8">
         <v>1125</v>
       </c>
+      <c r="R8" t="s">
+        <v>76</v>
+      </c>
+      <c r="S8" t="s">
+        <v>76</v>
+      </c>
+      <c r="T8" t="s">
+        <v>76</v>
+      </c>
+      <c r="U8" t="s">
+        <v>76</v>
+      </c>
+      <c r="V8" t="s">
+        <v>76</v>
+      </c>
+      <c r="W8" t="s">
+        <v>76</v>
+      </c>
+      <c r="X8" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>90</v>
       </c>
@@ -48234,8 +48402,29 @@
       <c r="Q9">
         <v>6781</v>
       </c>
+      <c r="R9" t="s">
+        <v>75</v>
+      </c>
+      <c r="S9" t="s">
+        <v>76</v>
+      </c>
+      <c r="T9" t="s">
+        <v>76</v>
+      </c>
+      <c r="U9" t="s">
+        <v>76</v>
+      </c>
+      <c r="V9" t="s">
+        <v>76</v>
+      </c>
+      <c r="W9" t="s">
+        <v>79</v>
+      </c>
+      <c r="X9" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>92</v>
       </c>
@@ -48295,8 +48484,29 @@
       <c r="Q10">
         <v>1517</v>
       </c>
+      <c r="R10" t="s">
+        <v>76</v>
+      </c>
+      <c r="S10" t="s">
+        <v>76</v>
+      </c>
+      <c r="T10" t="s">
+        <v>76</v>
+      </c>
+      <c r="U10" t="s">
+        <v>76</v>
+      </c>
+      <c r="V10" t="s">
+        <v>76</v>
+      </c>
+      <c r="W10" t="s">
+        <v>76</v>
+      </c>
+      <c r="X10" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>94</v>
       </c>
@@ -48356,8 +48566,29 @@
       <c r="Q11">
         <v>1075</v>
       </c>
+      <c r="R11" t="s">
+        <v>76</v>
+      </c>
+      <c r="S11" t="s">
+        <v>76</v>
+      </c>
+      <c r="T11" t="s">
+        <v>76</v>
+      </c>
+      <c r="U11" t="s">
+        <v>76</v>
+      </c>
+      <c r="V11" t="s">
+        <v>76</v>
+      </c>
+      <c r="W11" t="s">
+        <v>76</v>
+      </c>
+      <c r="X11" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>96</v>
       </c>
@@ -48417,8 +48648,29 @@
       <c r="Q12">
         <v>1093</v>
       </c>
+      <c r="R12" t="s">
+        <v>76</v>
+      </c>
+      <c r="S12" t="s">
+        <v>76</v>
+      </c>
+      <c r="T12" t="s">
+        <v>76</v>
+      </c>
+      <c r="U12" t="s">
+        <v>76</v>
+      </c>
+      <c r="V12" t="s">
+        <v>76</v>
+      </c>
+      <c r="W12" t="s">
+        <v>76</v>
+      </c>
+      <c r="X12" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>98</v>
       </c>
@@ -48478,8 +48730,29 @@
       <c r="Q13">
         <v>620</v>
       </c>
+      <c r="R13" t="s">
+        <v>76</v>
+      </c>
+      <c r="S13" t="s">
+        <v>76</v>
+      </c>
+      <c r="T13" t="s">
+        <v>79</v>
+      </c>
+      <c r="U13" t="s">
+        <v>76</v>
+      </c>
+      <c r="V13" t="s">
+        <v>76</v>
+      </c>
+      <c r="W13" t="s">
+        <v>76</v>
+      </c>
+      <c r="X13" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>100</v>
       </c>
@@ -48539,8 +48812,29 @@
       <c r="Q14">
         <v>706</v>
       </c>
+      <c r="R14" t="s">
+        <v>76</v>
+      </c>
+      <c r="S14" t="s">
+        <v>76</v>
+      </c>
+      <c r="T14" t="s">
+        <v>76</v>
+      </c>
+      <c r="U14" t="s">
+        <v>76</v>
+      </c>
+      <c r="V14" t="s">
+        <v>76</v>
+      </c>
+      <c r="W14" t="s">
+        <v>76</v>
+      </c>
+      <c r="X14" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>102</v>
       </c>
@@ -48600,8 +48894,29 @@
       <c r="Q15">
         <v>435</v>
       </c>
+      <c r="R15" t="s">
+        <v>76</v>
+      </c>
+      <c r="S15" t="s">
+        <v>76</v>
+      </c>
+      <c r="T15" t="s">
+        <v>76</v>
+      </c>
+      <c r="U15" t="s">
+        <v>76</v>
+      </c>
+      <c r="V15" t="s">
+        <v>76</v>
+      </c>
+      <c r="W15" t="s">
+        <v>76</v>
+      </c>
+      <c r="X15" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>104</v>
       </c>
@@ -48661,8 +48976,29 @@
       <c r="Q16">
         <v>966</v>
       </c>
+      <c r="R16" t="s">
+        <v>76</v>
+      </c>
+      <c r="S16" t="s">
+        <v>76</v>
+      </c>
+      <c r="T16" t="s">
+        <v>76</v>
+      </c>
+      <c r="U16" t="s">
+        <v>76</v>
+      </c>
+      <c r="V16" t="s">
+        <v>76</v>
+      </c>
+      <c r="W16" t="s">
+        <v>76</v>
+      </c>
+      <c r="X16" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>106</v>
       </c>
@@ -48722,8 +49058,29 @@
       <c r="Q17">
         <v>726</v>
       </c>
+      <c r="R17" t="s">
+        <v>76</v>
+      </c>
+      <c r="S17" t="s">
+        <v>76</v>
+      </c>
+      <c r="T17" t="s">
+        <v>76</v>
+      </c>
+      <c r="U17" t="s">
+        <v>76</v>
+      </c>
+      <c r="V17" t="s">
+        <v>76</v>
+      </c>
+      <c r="W17" t="s">
+        <v>76</v>
+      </c>
+      <c r="X17" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>108</v>
       </c>
@@ -48783,8 +49140,29 @@
       <c r="Q18">
         <v>808</v>
       </c>
+      <c r="R18" t="s">
+        <v>76</v>
+      </c>
+      <c r="S18" t="s">
+        <v>76</v>
+      </c>
+      <c r="T18" t="s">
+        <v>76</v>
+      </c>
+      <c r="U18" t="s">
+        <v>76</v>
+      </c>
+      <c r="V18" t="s">
+        <v>76</v>
+      </c>
+      <c r="W18" t="s">
+        <v>76</v>
+      </c>
+      <c r="X18" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>110</v>
       </c>
@@ -48844,8 +49222,29 @@
       <c r="Q19">
         <v>2686</v>
       </c>
+      <c r="R19" t="s">
+        <v>76</v>
+      </c>
+      <c r="S19" t="s">
+        <v>76</v>
+      </c>
+      <c r="T19" t="s">
+        <v>76</v>
+      </c>
+      <c r="U19" t="s">
+        <v>76</v>
+      </c>
+      <c r="V19" t="s">
+        <v>76</v>
+      </c>
+      <c r="W19" t="s">
+        <v>76</v>
+      </c>
+      <c r="X19" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>112</v>
       </c>
@@ -48905,8 +49304,29 @@
       <c r="Q20">
         <v>474</v>
       </c>
+      <c r="R20" t="s">
+        <v>76</v>
+      </c>
+      <c r="S20" t="s">
+        <v>76</v>
+      </c>
+      <c r="T20" t="s">
+        <v>76</v>
+      </c>
+      <c r="U20" t="s">
+        <v>76</v>
+      </c>
+      <c r="V20" t="s">
+        <v>76</v>
+      </c>
+      <c r="W20" t="s">
+        <v>76</v>
+      </c>
+      <c r="X20" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>114</v>
       </c>
@@ -48966,8 +49386,29 @@
       <c r="Q21">
         <v>679</v>
       </c>
+      <c r="R21" t="s">
+        <v>76</v>
+      </c>
+      <c r="S21" t="s">
+        <v>76</v>
+      </c>
+      <c r="T21" t="s">
+        <v>76</v>
+      </c>
+      <c r="U21" t="s">
+        <v>76</v>
+      </c>
+      <c r="V21" t="s">
+        <v>76</v>
+      </c>
+      <c r="W21" t="s">
+        <v>76</v>
+      </c>
+      <c r="X21" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>116</v>
       </c>
@@ -49027,8 +49468,29 @@
       <c r="Q22">
         <v>688</v>
       </c>
+      <c r="R22" t="s">
+        <v>76</v>
+      </c>
+      <c r="S22" t="s">
+        <v>76</v>
+      </c>
+      <c r="T22" t="s">
+        <v>76</v>
+      </c>
+      <c r="U22" t="s">
+        <v>76</v>
+      </c>
+      <c r="V22" t="s">
+        <v>76</v>
+      </c>
+      <c r="W22" t="s">
+        <v>79</v>
+      </c>
+      <c r="X22" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>118</v>
       </c>
@@ -49088,8 +49550,29 @@
       <c r="Q23">
         <v>1005</v>
       </c>
+      <c r="R23" t="s">
+        <v>76</v>
+      </c>
+      <c r="S23" t="s">
+        <v>76</v>
+      </c>
+      <c r="T23" t="s">
+        <v>76</v>
+      </c>
+      <c r="U23" t="s">
+        <v>76</v>
+      </c>
+      <c r="V23" t="s">
+        <v>76</v>
+      </c>
+      <c r="W23" t="s">
+        <v>76</v>
+      </c>
+      <c r="X23" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>120</v>
       </c>
@@ -49149,8 +49632,29 @@
       <c r="Q24">
         <v>1035</v>
       </c>
+      <c r="R24" t="s">
+        <v>76</v>
+      </c>
+      <c r="S24" t="s">
+        <v>76</v>
+      </c>
+      <c r="T24" t="s">
+        <v>76</v>
+      </c>
+      <c r="U24" t="s">
+        <v>76</v>
+      </c>
+      <c r="V24" t="s">
+        <v>76</v>
+      </c>
+      <c r="W24" t="s">
+        <v>76</v>
+      </c>
+      <c r="X24" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>122</v>
       </c>
@@ -49210,8 +49714,29 @@
       <c r="Q25">
         <v>2740</v>
       </c>
+      <c r="R25" t="s">
+        <v>76</v>
+      </c>
+      <c r="S25" t="s">
+        <v>76</v>
+      </c>
+      <c r="T25" t="s">
+        <v>76</v>
+      </c>
+      <c r="U25" t="s">
+        <v>76</v>
+      </c>
+      <c r="V25" t="s">
+        <v>76</v>
+      </c>
+      <c r="W25" t="s">
+        <v>76</v>
+      </c>
+      <c r="X25" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>124</v>
       </c>
@@ -49271,8 +49796,29 @@
       <c r="Q26">
         <v>790</v>
       </c>
+      <c r="R26" t="s">
+        <v>76</v>
+      </c>
+      <c r="S26" t="s">
+        <v>76</v>
+      </c>
+      <c r="T26" t="s">
+        <v>76</v>
+      </c>
+      <c r="U26" t="s">
+        <v>76</v>
+      </c>
+      <c r="V26" t="s">
+        <v>76</v>
+      </c>
+      <c r="W26" t="s">
+        <v>76</v>
+      </c>
+      <c r="X26" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>126</v>
       </c>
@@ -49332,8 +49878,29 @@
       <c r="Q27">
         <v>2712</v>
       </c>
+      <c r="R27" t="s">
+        <v>76</v>
+      </c>
+      <c r="S27" t="s">
+        <v>76</v>
+      </c>
+      <c r="T27" t="s">
+        <v>76</v>
+      </c>
+      <c r="U27" t="s">
+        <v>76</v>
+      </c>
+      <c r="V27" t="s">
+        <v>76</v>
+      </c>
+      <c r="W27" t="s">
+        <v>76</v>
+      </c>
+      <c r="X27" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>128</v>
       </c>
@@ -49393,8 +49960,29 @@
       <c r="Q28">
         <v>377</v>
       </c>
+      <c r="R28" t="s">
+        <v>76</v>
+      </c>
+      <c r="S28" t="s">
+        <v>76</v>
+      </c>
+      <c r="T28" t="s">
+        <v>76</v>
+      </c>
+      <c r="U28" t="s">
+        <v>76</v>
+      </c>
+      <c r="V28" t="s">
+        <v>76</v>
+      </c>
+      <c r="W28" t="s">
+        <v>76</v>
+      </c>
+      <c r="X28" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>130</v>
       </c>
@@ -49454,8 +50042,29 @@
       <c r="Q29">
         <v>479</v>
       </c>
+      <c r="R29" t="s">
+        <v>76</v>
+      </c>
+      <c r="S29" t="s">
+        <v>76</v>
+      </c>
+      <c r="T29" t="s">
+        <v>76</v>
+      </c>
+      <c r="U29" t="s">
+        <v>76</v>
+      </c>
+      <c r="V29" t="s">
+        <v>76</v>
+      </c>
+      <c r="W29" t="s">
+        <v>76</v>
+      </c>
+      <c r="X29" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>132</v>
       </c>
@@ -49515,8 +50124,29 @@
       <c r="Q30">
         <v>669</v>
       </c>
+      <c r="R30" t="s">
+        <v>76</v>
+      </c>
+      <c r="S30" t="s">
+        <v>76</v>
+      </c>
+      <c r="T30" t="s">
+        <v>76</v>
+      </c>
+      <c r="U30" t="s">
+        <v>76</v>
+      </c>
+      <c r="V30" t="s">
+        <v>76</v>
+      </c>
+      <c r="W30" t="s">
+        <v>76</v>
+      </c>
+      <c r="X30" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>134</v>
       </c>
@@ -49576,8 +50206,29 @@
       <c r="Q31">
         <v>2570</v>
       </c>
+      <c r="R31" t="s">
+        <v>76</v>
+      </c>
+      <c r="S31" t="s">
+        <v>76</v>
+      </c>
+      <c r="T31" t="s">
+        <v>76</v>
+      </c>
+      <c r="U31" t="s">
+        <v>76</v>
+      </c>
+      <c r="V31" t="s">
+        <v>76</v>
+      </c>
+      <c r="W31" t="s">
+        <v>76</v>
+      </c>
+      <c r="X31" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>136</v>
       </c>
@@ -49637,8 +50288,29 @@
       <c r="Q32">
         <v>987</v>
       </c>
+      <c r="R32" t="s">
+        <v>76</v>
+      </c>
+      <c r="S32" t="s">
+        <v>76</v>
+      </c>
+      <c r="T32" t="s">
+        <v>76</v>
+      </c>
+      <c r="U32" t="s">
+        <v>76</v>
+      </c>
+      <c r="V32" t="s">
+        <v>76</v>
+      </c>
+      <c r="W32" t="s">
+        <v>76</v>
+      </c>
+      <c r="X32" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>138</v>
       </c>
@@ -49698,8 +50370,29 @@
       <c r="Q33">
         <v>4572</v>
       </c>
+      <c r="R33" t="s">
+        <v>79</v>
+      </c>
+      <c r="S33" t="s">
+        <v>76</v>
+      </c>
+      <c r="T33" t="s">
+        <v>76</v>
+      </c>
+      <c r="U33" t="s">
+        <v>76</v>
+      </c>
+      <c r="V33" t="s">
+        <v>76</v>
+      </c>
+      <c r="W33" t="s">
+        <v>76</v>
+      </c>
+      <c r="X33" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>140</v>
       </c>
@@ -49759,8 +50452,29 @@
       <c r="Q34">
         <v>530</v>
       </c>
+      <c r="R34" t="s">
+        <v>76</v>
+      </c>
+      <c r="S34" t="s">
+        <v>76</v>
+      </c>
+      <c r="T34" t="s">
+        <v>76</v>
+      </c>
+      <c r="U34" t="s">
+        <v>76</v>
+      </c>
+      <c r="V34" t="s">
+        <v>76</v>
+      </c>
+      <c r="W34" t="s">
+        <v>76</v>
+      </c>
+      <c r="X34" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>142</v>
       </c>
@@ -49820,8 +50534,29 @@
       <c r="Q35">
         <v>1188</v>
       </c>
+      <c r="R35" t="s">
+        <v>76</v>
+      </c>
+      <c r="S35" t="s">
+        <v>76</v>
+      </c>
+      <c r="T35" t="s">
+        <v>76</v>
+      </c>
+      <c r="U35" t="s">
+        <v>76</v>
+      </c>
+      <c r="V35" t="s">
+        <v>76</v>
+      </c>
+      <c r="W35" t="s">
+        <v>76</v>
+      </c>
+      <c r="X35" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>144</v>
       </c>
@@ -49881,8 +50616,29 @@
       <c r="Q36">
         <v>970</v>
       </c>
+      <c r="R36" t="s">
+        <v>76</v>
+      </c>
+      <c r="S36" t="s">
+        <v>76</v>
+      </c>
+      <c r="T36" t="s">
+        <v>76</v>
+      </c>
+      <c r="U36" t="s">
+        <v>76</v>
+      </c>
+      <c r="V36" t="s">
+        <v>76</v>
+      </c>
+      <c r="W36" t="s">
+        <v>76</v>
+      </c>
+      <c r="X36" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>146</v>
       </c>
@@ -49942,8 +50698,29 @@
       <c r="Q37">
         <v>328</v>
       </c>
+      <c r="R37" t="s">
+        <v>76</v>
+      </c>
+      <c r="S37" t="s">
+        <v>76</v>
+      </c>
+      <c r="T37" t="s">
+        <v>76</v>
+      </c>
+      <c r="U37" t="s">
+        <v>76</v>
+      </c>
+      <c r="V37" t="s">
+        <v>76</v>
+      </c>
+      <c r="W37" t="s">
+        <v>76</v>
+      </c>
+      <c r="X37" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>148</v>
       </c>
@@ -50003,8 +50780,29 @@
       <c r="Q38">
         <v>413</v>
       </c>
+      <c r="R38" t="s">
+        <v>76</v>
+      </c>
+      <c r="S38" t="s">
+        <v>76</v>
+      </c>
+      <c r="T38" t="s">
+        <v>76</v>
+      </c>
+      <c r="U38" t="s">
+        <v>76</v>
+      </c>
+      <c r="V38" t="s">
+        <v>76</v>
+      </c>
+      <c r="W38" t="s">
+        <v>76</v>
+      </c>
+      <c r="X38" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>150</v>
       </c>
@@ -50064,8 +50862,29 @@
       <c r="Q39">
         <v>525</v>
       </c>
+      <c r="R39" t="s">
+        <v>76</v>
+      </c>
+      <c r="S39" t="s">
+        <v>76</v>
+      </c>
+      <c r="T39" t="s">
+        <v>76</v>
+      </c>
+      <c r="U39" t="s">
+        <v>76</v>
+      </c>
+      <c r="V39" t="s">
+        <v>76</v>
+      </c>
+      <c r="W39" t="s">
+        <v>76</v>
+      </c>
+      <c r="X39" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>152</v>
       </c>
@@ -50125,8 +50944,29 @@
       <c r="Q40">
         <v>450</v>
       </c>
+      <c r="R40" t="s">
+        <v>76</v>
+      </c>
+      <c r="S40" t="s">
+        <v>76</v>
+      </c>
+      <c r="T40" t="s">
+        <v>76</v>
+      </c>
+      <c r="U40" t="s">
+        <v>76</v>
+      </c>
+      <c r="V40" t="s">
+        <v>76</v>
+      </c>
+      <c r="W40" t="s">
+        <v>76</v>
+      </c>
+      <c r="X40" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>154</v>
       </c>
@@ -50186,8 +51026,29 @@
       <c r="Q41">
         <v>386</v>
       </c>
+      <c r="R41" t="s">
+        <v>76</v>
+      </c>
+      <c r="S41" t="s">
+        <v>76</v>
+      </c>
+      <c r="T41" t="s">
+        <v>76</v>
+      </c>
+      <c r="U41" t="s">
+        <v>76</v>
+      </c>
+      <c r="V41" t="s">
+        <v>76</v>
+      </c>
+      <c r="W41" t="s">
+        <v>76</v>
+      </c>
+      <c r="X41" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>156</v>
       </c>
@@ -50247,8 +51108,29 @@
       <c r="Q42">
         <v>637</v>
       </c>
+      <c r="R42" t="s">
+        <v>76</v>
+      </c>
+      <c r="S42" t="s">
+        <v>76</v>
+      </c>
+      <c r="T42" t="s">
+        <v>76</v>
+      </c>
+      <c r="U42" t="s">
+        <v>76</v>
+      </c>
+      <c r="V42" t="s">
+        <v>76</v>
+      </c>
+      <c r="W42" t="s">
+        <v>76</v>
+      </c>
+      <c r="X42" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>158</v>
       </c>
@@ -50308,8 +51190,29 @@
       <c r="Q43">
         <v>610</v>
       </c>
+      <c r="R43" t="s">
+        <v>76</v>
+      </c>
+      <c r="S43" t="s">
+        <v>76</v>
+      </c>
+      <c r="T43" t="s">
+        <v>76</v>
+      </c>
+      <c r="U43" t="s">
+        <v>76</v>
+      </c>
+      <c r="V43" t="s">
+        <v>76</v>
+      </c>
+      <c r="W43" t="s">
+        <v>76</v>
+      </c>
+      <c r="X43" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>160</v>
       </c>
@@ -50369,8 +51272,29 @@
       <c r="Q44">
         <v>788</v>
       </c>
+      <c r="R44" t="s">
+        <v>76</v>
+      </c>
+      <c r="S44" t="s">
+        <v>76</v>
+      </c>
+      <c r="T44" t="s">
+        <v>76</v>
+      </c>
+      <c r="U44" t="s">
+        <v>76</v>
+      </c>
+      <c r="V44" t="s">
+        <v>76</v>
+      </c>
+      <c r="W44" t="s">
+        <v>76</v>
+      </c>
+      <c r="X44" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>162</v>
       </c>
@@ -50430,8 +51354,29 @@
       <c r="Q45">
         <v>761</v>
       </c>
+      <c r="R45" t="s">
+        <v>76</v>
+      </c>
+      <c r="S45" t="s">
+        <v>76</v>
+      </c>
+      <c r="T45" t="s">
+        <v>76</v>
+      </c>
+      <c r="U45" t="s">
+        <v>76</v>
+      </c>
+      <c r="V45" t="s">
+        <v>76</v>
+      </c>
+      <c r="W45" t="s">
+        <v>76</v>
+      </c>
+      <c r="X45" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>164</v>
       </c>
@@ -50491,8 +51436,29 @@
       <c r="Q46">
         <v>1084</v>
       </c>
+      <c r="R46" t="s">
+        <v>76</v>
+      </c>
+      <c r="S46" t="s">
+        <v>76</v>
+      </c>
+      <c r="T46" t="s">
+        <v>76</v>
+      </c>
+      <c r="U46" t="s">
+        <v>76</v>
+      </c>
+      <c r="V46" t="s">
+        <v>76</v>
+      </c>
+      <c r="W46" t="s">
+        <v>76</v>
+      </c>
+      <c r="X46" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>166</v>
       </c>
@@ -50552,8 +51518,29 @@
       <c r="Q47">
         <v>298</v>
       </c>
+      <c r="R47" t="s">
+        <v>76</v>
+      </c>
+      <c r="S47" t="s">
+        <v>76</v>
+      </c>
+      <c r="T47" t="s">
+        <v>76</v>
+      </c>
+      <c r="U47" t="s">
+        <v>76</v>
+      </c>
+      <c r="V47" t="s">
+        <v>76</v>
+      </c>
+      <c r="W47" t="s">
+        <v>76</v>
+      </c>
+      <c r="X47" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>168</v>
       </c>
@@ -50613,8 +51600,29 @@
       <c r="Q48">
         <v>654</v>
       </c>
+      <c r="R48" t="s">
+        <v>76</v>
+      </c>
+      <c r="S48" t="s">
+        <v>76</v>
+      </c>
+      <c r="T48" t="s">
+        <v>76</v>
+      </c>
+      <c r="U48" t="s">
+        <v>76</v>
+      </c>
+      <c r="V48" t="s">
+        <v>76</v>
+      </c>
+      <c r="W48" t="s">
+        <v>76</v>
+      </c>
+      <c r="X48" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>170</v>
       </c>
@@ -50674,8 +51682,29 @@
       <c r="Q49">
         <v>340</v>
       </c>
+      <c r="R49" t="s">
+        <v>76</v>
+      </c>
+      <c r="S49" t="s">
+        <v>76</v>
+      </c>
+      <c r="T49" t="s">
+        <v>76</v>
+      </c>
+      <c r="U49" t="s">
+        <v>76</v>
+      </c>
+      <c r="V49" t="s">
+        <v>76</v>
+      </c>
+      <c r="W49" t="s">
+        <v>76</v>
+      </c>
+      <c r="X49" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>172</v>
       </c>
@@ -50735,8 +51764,29 @@
       <c r="Q50">
         <v>766</v>
       </c>
+      <c r="R50" t="s">
+        <v>76</v>
+      </c>
+      <c r="S50" t="s">
+        <v>76</v>
+      </c>
+      <c r="T50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U50" t="s">
+        <v>76</v>
+      </c>
+      <c r="V50" t="s">
+        <v>76</v>
+      </c>
+      <c r="W50" t="s">
+        <v>76</v>
+      </c>
+      <c r="X50" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>173</v>
       </c>
@@ -50796,8 +51846,29 @@
       <c r="Q51">
         <v>885</v>
       </c>
+      <c r="R51" t="s">
+        <v>76</v>
+      </c>
+      <c r="S51" t="s">
+        <v>76</v>
+      </c>
+      <c r="T51" t="s">
+        <v>76</v>
+      </c>
+      <c r="U51" t="s">
+        <v>76</v>
+      </c>
+      <c r="V51" t="s">
+        <v>76</v>
+      </c>
+      <c r="W51" t="s">
+        <v>76</v>
+      </c>
+      <c r="X51" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>175</v>
       </c>
@@ -50857,8 +51928,29 @@
       <c r="Q52">
         <v>1912</v>
       </c>
+      <c r="R52" t="s">
+        <v>76</v>
+      </c>
+      <c r="S52" t="s">
+        <v>76</v>
+      </c>
+      <c r="T52" t="s">
+        <v>76</v>
+      </c>
+      <c r="U52" t="s">
+        <v>76</v>
+      </c>
+      <c r="V52" t="s">
+        <v>76</v>
+      </c>
+      <c r="W52" t="s">
+        <v>76</v>
+      </c>
+      <c r="X52" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>177</v>
       </c>
@@ -50918,8 +52010,29 @@
       <c r="Q53">
         <v>1194</v>
       </c>
+      <c r="R53" t="s">
+        <v>76</v>
+      </c>
+      <c r="S53" t="s">
+        <v>76</v>
+      </c>
+      <c r="T53" t="s">
+        <v>76</v>
+      </c>
+      <c r="U53" t="s">
+        <v>76</v>
+      </c>
+      <c r="V53" t="s">
+        <v>76</v>
+      </c>
+      <c r="W53" t="s">
+        <v>76</v>
+      </c>
+      <c r="X53" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>179</v>
       </c>
@@ -50979,8 +52092,29 @@
       <c r="Q54">
         <v>4910</v>
       </c>
+      <c r="R54" t="s">
+        <v>79</v>
+      </c>
+      <c r="S54" t="s">
+        <v>76</v>
+      </c>
+      <c r="T54" t="s">
+        <v>76</v>
+      </c>
+      <c r="U54" t="s">
+        <v>76</v>
+      </c>
+      <c r="V54" t="s">
+        <v>76</v>
+      </c>
+      <c r="W54" t="s">
+        <v>76</v>
+      </c>
+      <c r="X54" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>181</v>
       </c>
@@ -51040,8 +52174,29 @@
       <c r="Q55">
         <v>947</v>
       </c>
+      <c r="R55" t="s">
+        <v>76</v>
+      </c>
+      <c r="S55" t="s">
+        <v>76</v>
+      </c>
+      <c r="T55" t="s">
+        <v>76</v>
+      </c>
+      <c r="U55" t="s">
+        <v>76</v>
+      </c>
+      <c r="V55" t="s">
+        <v>76</v>
+      </c>
+      <c r="W55" t="s">
+        <v>76</v>
+      </c>
+      <c r="X55" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>183</v>
       </c>
@@ -51101,8 +52256,29 @@
       <c r="Q56">
         <v>702</v>
       </c>
+      <c r="R56" t="s">
+        <v>76</v>
+      </c>
+      <c r="S56" t="s">
+        <v>76</v>
+      </c>
+      <c r="T56" t="s">
+        <v>76</v>
+      </c>
+      <c r="U56" t="s">
+        <v>76</v>
+      </c>
+      <c r="V56" t="s">
+        <v>76</v>
+      </c>
+      <c r="W56" t="s">
+        <v>76</v>
+      </c>
+      <c r="X56" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>185</v>
       </c>
@@ -51162,8 +52338,29 @@
       <c r="Q57">
         <v>1054</v>
       </c>
+      <c r="R57" t="s">
+        <v>76</v>
+      </c>
+      <c r="S57" t="s">
+        <v>76</v>
+      </c>
+      <c r="T57" t="s">
+        <v>76</v>
+      </c>
+      <c r="U57" t="s">
+        <v>76</v>
+      </c>
+      <c r="V57" t="s">
+        <v>76</v>
+      </c>
+      <c r="W57" t="s">
+        <v>76</v>
+      </c>
+      <c r="X57" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>187</v>
       </c>
@@ -51223,8 +52420,29 @@
       <c r="Q58">
         <v>2441</v>
       </c>
+      <c r="R58" t="s">
+        <v>76</v>
+      </c>
+      <c r="S58" t="s">
+        <v>76</v>
+      </c>
+      <c r="T58" t="s">
+        <v>76</v>
+      </c>
+      <c r="U58" t="s">
+        <v>76</v>
+      </c>
+      <c r="V58" t="s">
+        <v>76</v>
+      </c>
+      <c r="W58" t="s">
+        <v>76</v>
+      </c>
+      <c r="X58" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>189</v>
       </c>
@@ -51284,8 +52502,29 @@
       <c r="Q59">
         <v>9481</v>
       </c>
+      <c r="R59" t="s">
+        <v>79</v>
+      </c>
+      <c r="S59" t="s">
+        <v>76</v>
+      </c>
+      <c r="T59" t="s">
+        <v>76</v>
+      </c>
+      <c r="U59" t="s">
+        <v>76</v>
+      </c>
+      <c r="V59" t="s">
+        <v>76</v>
+      </c>
+      <c r="W59" t="s">
+        <v>79</v>
+      </c>
+      <c r="X59" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>191</v>
       </c>
@@ -51345,8 +52584,29 @@
       <c r="Q60">
         <v>387</v>
       </c>
+      <c r="R60" t="s">
+        <v>76</v>
+      </c>
+      <c r="S60" t="s">
+        <v>76</v>
+      </c>
+      <c r="T60" t="s">
+        <v>76</v>
+      </c>
+      <c r="U60" t="s">
+        <v>76</v>
+      </c>
+      <c r="V60" t="s">
+        <v>76</v>
+      </c>
+      <c r="W60" t="s">
+        <v>76</v>
+      </c>
+      <c r="X60" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>193</v>
       </c>
@@ -51406,8 +52666,29 @@
       <c r="Q61">
         <v>592</v>
       </c>
+      <c r="R61" t="s">
+        <v>76</v>
+      </c>
+      <c r="S61" t="s">
+        <v>76</v>
+      </c>
+      <c r="T61" t="s">
+        <v>76</v>
+      </c>
+      <c r="U61" t="s">
+        <v>76</v>
+      </c>
+      <c r="V61" t="s">
+        <v>76</v>
+      </c>
+      <c r="W61" t="s">
+        <v>76</v>
+      </c>
+      <c r="X61" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>195</v>
       </c>
@@ -51467,8 +52748,29 @@
       <c r="Q62">
         <v>492</v>
       </c>
+      <c r="R62" t="s">
+        <v>76</v>
+      </c>
+      <c r="S62" t="s">
+        <v>76</v>
+      </c>
+      <c r="T62" t="s">
+        <v>76</v>
+      </c>
+      <c r="U62" t="s">
+        <v>76</v>
+      </c>
+      <c r="V62" t="s">
+        <v>76</v>
+      </c>
+      <c r="W62" t="s">
+        <v>76</v>
+      </c>
+      <c r="X62" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>197</v>
       </c>
@@ -51528,8 +52830,29 @@
       <c r="Q63">
         <v>552</v>
       </c>
+      <c r="R63" t="s">
+        <v>76</v>
+      </c>
+      <c r="S63" t="s">
+        <v>76</v>
+      </c>
+      <c r="T63" t="s">
+        <v>76</v>
+      </c>
+      <c r="U63" t="s">
+        <v>76</v>
+      </c>
+      <c r="V63" t="s">
+        <v>76</v>
+      </c>
+      <c r="W63" t="s">
+        <v>76</v>
+      </c>
+      <c r="X63" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>199</v>
       </c>
@@ -51589,8 +52912,29 @@
       <c r="Q64">
         <v>1203</v>
       </c>
+      <c r="R64" t="s">
+        <v>76</v>
+      </c>
+      <c r="S64" t="s">
+        <v>76</v>
+      </c>
+      <c r="T64" t="s">
+        <v>76</v>
+      </c>
+      <c r="U64" t="s">
+        <v>76</v>
+      </c>
+      <c r="V64" t="s">
+        <v>76</v>
+      </c>
+      <c r="W64" t="s">
+        <v>76</v>
+      </c>
+      <c r="X64" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>201</v>
       </c>
@@ -51650,8 +52994,29 @@
       <c r="Q65">
         <v>2126</v>
       </c>
+      <c r="R65" t="s">
+        <v>76</v>
+      </c>
+      <c r="S65" t="s">
+        <v>76</v>
+      </c>
+      <c r="T65" t="s">
+        <v>76</v>
+      </c>
+      <c r="U65" t="s">
+        <v>76</v>
+      </c>
+      <c r="V65" t="s">
+        <v>76</v>
+      </c>
+      <c r="W65" t="s">
+        <v>76</v>
+      </c>
+      <c r="X65" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>203</v>
       </c>
@@ -51711,8 +53076,29 @@
       <c r="Q66">
         <v>1656</v>
       </c>
+      <c r="R66" t="s">
+        <v>76</v>
+      </c>
+      <c r="S66" t="s">
+        <v>76</v>
+      </c>
+      <c r="T66" t="s">
+        <v>76</v>
+      </c>
+      <c r="U66" t="s">
+        <v>76</v>
+      </c>
+      <c r="V66" t="s">
+        <v>76</v>
+      </c>
+      <c r="W66" t="s">
+        <v>76</v>
+      </c>
+      <c r="X66" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>205</v>
       </c>
@@ -51772,8 +53158,29 @@
       <c r="Q67">
         <v>1095</v>
       </c>
+      <c r="R67" t="s">
+        <v>76</v>
+      </c>
+      <c r="S67" t="s">
+        <v>76</v>
+      </c>
+      <c r="T67" t="s">
+        <v>76</v>
+      </c>
+      <c r="U67" t="s">
+        <v>76</v>
+      </c>
+      <c r="V67" t="s">
+        <v>76</v>
+      </c>
+      <c r="W67" t="s">
+        <v>76</v>
+      </c>
+      <c r="X67" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>207</v>
       </c>
@@ -51833,8 +53240,29 @@
       <c r="Q68">
         <v>468</v>
       </c>
+      <c r="R68" t="s">
+        <v>76</v>
+      </c>
+      <c r="S68" t="s">
+        <v>76</v>
+      </c>
+      <c r="T68" t="s">
+        <v>76</v>
+      </c>
+      <c r="U68" t="s">
+        <v>76</v>
+      </c>
+      <c r="V68" t="s">
+        <v>76</v>
+      </c>
+      <c r="W68" t="s">
+        <v>76</v>
+      </c>
+      <c r="X68" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>209</v>
       </c>
@@ -51894,8 +53322,29 @@
       <c r="Q69">
         <v>556</v>
       </c>
+      <c r="R69" t="s">
+        <v>76</v>
+      </c>
+      <c r="S69" t="s">
+        <v>76</v>
+      </c>
+      <c r="T69" t="s">
+        <v>76</v>
+      </c>
+      <c r="U69" t="s">
+        <v>76</v>
+      </c>
+      <c r="V69" t="s">
+        <v>76</v>
+      </c>
+      <c r="W69" t="s">
+        <v>76</v>
+      </c>
+      <c r="X69" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>211</v>
       </c>
@@ -51955,8 +53404,29 @@
       <c r="Q70">
         <v>507</v>
       </c>
+      <c r="R70" t="s">
+        <v>76</v>
+      </c>
+      <c r="S70" t="s">
+        <v>76</v>
+      </c>
+      <c r="T70" t="s">
+        <v>76</v>
+      </c>
+      <c r="U70" t="s">
+        <v>76</v>
+      </c>
+      <c r="V70" t="s">
+        <v>76</v>
+      </c>
+      <c r="W70" t="s">
+        <v>76</v>
+      </c>
+      <c r="X70" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>213</v>
       </c>
@@ -52016,8 +53486,29 @@
       <c r="Q71">
         <v>554</v>
       </c>
+      <c r="R71" t="s">
+        <v>76</v>
+      </c>
+      <c r="S71" t="s">
+        <v>76</v>
+      </c>
+      <c r="T71" t="s">
+        <v>76</v>
+      </c>
+      <c r="U71" t="s">
+        <v>76</v>
+      </c>
+      <c r="V71" t="s">
+        <v>76</v>
+      </c>
+      <c r="W71" t="s">
+        <v>76</v>
+      </c>
+      <c r="X71" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>215</v>
       </c>
@@ -52077,8 +53568,29 @@
       <c r="Q72">
         <v>1610</v>
       </c>
+      <c r="R72" t="s">
+        <v>76</v>
+      </c>
+      <c r="S72" t="s">
+        <v>76</v>
+      </c>
+      <c r="T72" t="s">
+        <v>76</v>
+      </c>
+      <c r="U72" t="s">
+        <v>76</v>
+      </c>
+      <c r="V72" t="s">
+        <v>76</v>
+      </c>
+      <c r="W72" t="s">
+        <v>76</v>
+      </c>
+      <c r="X72" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>217</v>
       </c>
@@ -52138,8 +53650,29 @@
       <c r="Q73">
         <v>834</v>
       </c>
+      <c r="R73" t="s">
+        <v>76</v>
+      </c>
+      <c r="S73" t="s">
+        <v>76</v>
+      </c>
+      <c r="T73" t="s">
+        <v>76</v>
+      </c>
+      <c r="U73" t="s">
+        <v>76</v>
+      </c>
+      <c r="V73" t="s">
+        <v>76</v>
+      </c>
+      <c r="W73" t="s">
+        <v>76</v>
+      </c>
+      <c r="X73" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>219</v>
       </c>
@@ -52199,8 +53732,29 @@
       <c r="Q74">
         <v>283</v>
       </c>
+      <c r="R74" t="s">
+        <v>76</v>
+      </c>
+      <c r="S74" t="s">
+        <v>76</v>
+      </c>
+      <c r="T74" t="s">
+        <v>76</v>
+      </c>
+      <c r="U74" t="s">
+        <v>76</v>
+      </c>
+      <c r="V74" t="s">
+        <v>76</v>
+      </c>
+      <c r="W74" t="s">
+        <v>76</v>
+      </c>
+      <c r="X74" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>221</v>
       </c>
@@ -52260,8 +53814,29 @@
       <c r="Q75">
         <v>838</v>
       </c>
+      <c r="R75" t="s">
+        <v>76</v>
+      </c>
+      <c r="S75" t="s">
+        <v>76</v>
+      </c>
+      <c r="T75" t="s">
+        <v>76</v>
+      </c>
+      <c r="U75" t="s">
+        <v>76</v>
+      </c>
+      <c r="V75" t="s">
+        <v>76</v>
+      </c>
+      <c r="W75" t="s">
+        <v>76</v>
+      </c>
+      <c r="X75" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>223</v>
       </c>
@@ -52321,8 +53896,29 @@
       <c r="Q76">
         <v>544</v>
       </c>
+      <c r="R76" t="s">
+        <v>76</v>
+      </c>
+      <c r="S76" t="s">
+        <v>76</v>
+      </c>
+      <c r="T76" t="s">
+        <v>76</v>
+      </c>
+      <c r="U76" t="s">
+        <v>76</v>
+      </c>
+      <c r="V76" t="s">
+        <v>76</v>
+      </c>
+      <c r="W76" t="s">
+        <v>76</v>
+      </c>
+      <c r="X76" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>225</v>
       </c>
@@ -52382,8 +53978,29 @@
       <c r="Q77">
         <v>1165</v>
       </c>
+      <c r="R77" t="s">
+        <v>76</v>
+      </c>
+      <c r="S77" t="s">
+        <v>76</v>
+      </c>
+      <c r="T77" t="s">
+        <v>76</v>
+      </c>
+      <c r="U77" t="s">
+        <v>76</v>
+      </c>
+      <c r="V77" t="s">
+        <v>76</v>
+      </c>
+      <c r="W77" t="s">
+        <v>76</v>
+      </c>
+      <c r="X77" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>227</v>
       </c>
@@ -52443,8 +54060,29 @@
       <c r="Q78">
         <v>376</v>
       </c>
+      <c r="R78" t="s">
+        <v>76</v>
+      </c>
+      <c r="S78" t="s">
+        <v>76</v>
+      </c>
+      <c r="T78" t="s">
+        <v>76</v>
+      </c>
+      <c r="U78" t="s">
+        <v>76</v>
+      </c>
+      <c r="V78" t="s">
+        <v>76</v>
+      </c>
+      <c r="W78" t="s">
+        <v>76</v>
+      </c>
+      <c r="X78" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>229</v>
       </c>
@@ -52504,8 +54142,29 @@
       <c r="Q79">
         <v>23005</v>
       </c>
+      <c r="R79" t="s">
+        <v>75</v>
+      </c>
+      <c r="S79" t="s">
+        <v>76</v>
+      </c>
+      <c r="T79" t="s">
+        <v>75</v>
+      </c>
+      <c r="U79" t="s">
+        <v>76</v>
+      </c>
+      <c r="V79" t="s">
+        <v>79</v>
+      </c>
+      <c r="W79" t="s">
+        <v>79</v>
+      </c>
+      <c r="X79" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>231</v>
       </c>
@@ -52565,8 +54224,29 @@
       <c r="Q80">
         <v>6076</v>
       </c>
+      <c r="R80" t="s">
+        <v>76</v>
+      </c>
+      <c r="S80" t="s">
+        <v>76</v>
+      </c>
+      <c r="T80" t="s">
+        <v>76</v>
+      </c>
+      <c r="U80" t="s">
+        <v>76</v>
+      </c>
+      <c r="V80" t="s">
+        <v>76</v>
+      </c>
+      <c r="W80" t="s">
+        <v>76</v>
+      </c>
+      <c r="X80" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>233</v>
       </c>
@@ -52626,8 +54306,29 @@
       <c r="Q81">
         <v>905</v>
       </c>
+      <c r="R81" t="s">
+        <v>76</v>
+      </c>
+      <c r="S81" t="s">
+        <v>76</v>
+      </c>
+      <c r="T81" t="s">
+        <v>76</v>
+      </c>
+      <c r="U81" t="s">
+        <v>76</v>
+      </c>
+      <c r="V81" t="s">
+        <v>76</v>
+      </c>
+      <c r="W81" t="s">
+        <v>76</v>
+      </c>
+      <c r="X81" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>235</v>
       </c>
@@ -52687,8 +54388,29 @@
       <c r="Q82">
         <v>206</v>
       </c>
+      <c r="R82" t="s">
+        <v>76</v>
+      </c>
+      <c r="S82" t="s">
+        <v>76</v>
+      </c>
+      <c r="T82" t="s">
+        <v>76</v>
+      </c>
+      <c r="U82" t="s">
+        <v>76</v>
+      </c>
+      <c r="V82" t="s">
+        <v>76</v>
+      </c>
+      <c r="W82" t="s">
+        <v>76</v>
+      </c>
+      <c r="X82" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>237</v>
       </c>
@@ -52748,8 +54470,29 @@
       <c r="Q83">
         <v>360</v>
       </c>
+      <c r="R83" t="s">
+        <v>76</v>
+      </c>
+      <c r="S83" t="s">
+        <v>76</v>
+      </c>
+      <c r="T83" t="s">
+        <v>76</v>
+      </c>
+      <c r="U83" t="s">
+        <v>76</v>
+      </c>
+      <c r="V83" t="s">
+        <v>76</v>
+      </c>
+      <c r="W83" t="s">
+        <v>76</v>
+      </c>
+      <c r="X83" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>239</v>
       </c>
@@ -52809,8 +54552,29 @@
       <c r="Q84">
         <v>7608</v>
       </c>
+      <c r="R84" t="s">
+        <v>79</v>
+      </c>
+      <c r="S84" t="s">
+        <v>76</v>
+      </c>
+      <c r="T84" t="s">
+        <v>76</v>
+      </c>
+      <c r="U84" t="s">
+        <v>76</v>
+      </c>
+      <c r="V84" t="s">
+        <v>76</v>
+      </c>
+      <c r="W84" t="s">
+        <v>76</v>
+      </c>
+      <c r="X84" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>241</v>
       </c>
@@ -52870,8 +54634,29 @@
       <c r="Q85">
         <v>470</v>
       </c>
+      <c r="R85" t="s">
+        <v>76</v>
+      </c>
+      <c r="S85" t="s">
+        <v>76</v>
+      </c>
+      <c r="T85" t="s">
+        <v>76</v>
+      </c>
+      <c r="U85" t="s">
+        <v>76</v>
+      </c>
+      <c r="V85" t="s">
+        <v>76</v>
+      </c>
+      <c r="W85" t="s">
+        <v>76</v>
+      </c>
+      <c r="X85" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>243</v>
       </c>
@@ -52931,8 +54716,29 @@
       <c r="Q86">
         <v>1011</v>
       </c>
+      <c r="R86" t="s">
+        <v>76</v>
+      </c>
+      <c r="S86" t="s">
+        <v>76</v>
+      </c>
+      <c r="T86" t="s">
+        <v>76</v>
+      </c>
+      <c r="U86" t="s">
+        <v>76</v>
+      </c>
+      <c r="V86" t="s">
+        <v>76</v>
+      </c>
+      <c r="W86" t="s">
+        <v>76</v>
+      </c>
+      <c r="X86" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>245</v>
       </c>
@@ -52992,8 +54798,29 @@
       <c r="Q87">
         <v>3625</v>
       </c>
+      <c r="R87" t="s">
+        <v>76</v>
+      </c>
+      <c r="S87" t="s">
+        <v>76</v>
+      </c>
+      <c r="T87" t="s">
+        <v>76</v>
+      </c>
+      <c r="U87" t="s">
+        <v>76</v>
+      </c>
+      <c r="V87" t="s">
+        <v>76</v>
+      </c>
+      <c r="W87" t="s">
+        <v>76</v>
+      </c>
+      <c r="X87" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>247</v>
       </c>
@@ -53053,8 +54880,29 @@
       <c r="Q88">
         <v>664</v>
       </c>
+      <c r="R88" t="s">
+        <v>76</v>
+      </c>
+      <c r="S88" t="s">
+        <v>79</v>
+      </c>
+      <c r="T88" t="s">
+        <v>76</v>
+      </c>
+      <c r="U88" t="s">
+        <v>76</v>
+      </c>
+      <c r="V88" t="s">
+        <v>76</v>
+      </c>
+      <c r="W88" t="s">
+        <v>76</v>
+      </c>
+      <c r="X88" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>249</v>
       </c>
@@ -53114,8 +54962,29 @@
       <c r="Q89">
         <v>347</v>
       </c>
+      <c r="R89" t="s">
+        <v>76</v>
+      </c>
+      <c r="S89" t="s">
+        <v>76</v>
+      </c>
+      <c r="T89" t="s">
+        <v>76</v>
+      </c>
+      <c r="U89" t="s">
+        <v>76</v>
+      </c>
+      <c r="V89" t="s">
+        <v>76</v>
+      </c>
+      <c r="W89" t="s">
+        <v>76</v>
+      </c>
+      <c r="X89" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>251</v>
       </c>
@@ -53175,8 +55044,29 @@
       <c r="Q90">
         <v>1005</v>
       </c>
+      <c r="R90" t="s">
+        <v>76</v>
+      </c>
+      <c r="S90" t="s">
+        <v>76</v>
+      </c>
+      <c r="T90" t="s">
+        <v>76</v>
+      </c>
+      <c r="U90" t="s">
+        <v>76</v>
+      </c>
+      <c r="V90" t="s">
+        <v>76</v>
+      </c>
+      <c r="W90" t="s">
+        <v>76</v>
+      </c>
+      <c r="X90" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>253</v>
       </c>
@@ -53236,8 +55126,29 @@
       <c r="Q91">
         <v>482</v>
       </c>
+      <c r="R91" t="s">
+        <v>76</v>
+      </c>
+      <c r="S91" t="s">
+        <v>76</v>
+      </c>
+      <c r="T91" t="s">
+        <v>76</v>
+      </c>
+      <c r="U91" t="s">
+        <v>76</v>
+      </c>
+      <c r="V91" t="s">
+        <v>76</v>
+      </c>
+      <c r="W91" t="s">
+        <v>76</v>
+      </c>
+      <c r="X91" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>255</v>
       </c>
@@ -53297,8 +55208,29 @@
       <c r="Q92">
         <v>2492</v>
       </c>
+      <c r="R92" t="s">
+        <v>76</v>
+      </c>
+      <c r="S92" t="s">
+        <v>76</v>
+      </c>
+      <c r="T92" t="s">
+        <v>76</v>
+      </c>
+      <c r="U92" t="s">
+        <v>76</v>
+      </c>
+      <c r="V92" t="s">
+        <v>76</v>
+      </c>
+      <c r="W92" t="s">
+        <v>76</v>
+      </c>
+      <c r="X92" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>257</v>
       </c>
@@ -53358,8 +55290,29 @@
       <c r="Q93">
         <v>2370</v>
       </c>
+      <c r="R93" t="s">
+        <v>76</v>
+      </c>
+      <c r="S93" t="s">
+        <v>76</v>
+      </c>
+      <c r="T93" t="s">
+        <v>76</v>
+      </c>
+      <c r="U93" t="s">
+        <v>76</v>
+      </c>
+      <c r="V93" t="s">
+        <v>76</v>
+      </c>
+      <c r="W93" t="s">
+        <v>76</v>
+      </c>
+      <c r="X93" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>259</v>
       </c>
@@ -53419,8 +55372,29 @@
       <c r="Q94">
         <v>1024</v>
       </c>
+      <c r="R94" t="s">
+        <v>76</v>
+      </c>
+      <c r="S94" t="s">
+        <v>76</v>
+      </c>
+      <c r="T94" t="s">
+        <v>76</v>
+      </c>
+      <c r="U94" t="s">
+        <v>76</v>
+      </c>
+      <c r="V94" t="s">
+        <v>76</v>
+      </c>
+      <c r="W94" t="s">
+        <v>76</v>
+      </c>
+      <c r="X94" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>261</v>
       </c>
@@ -53480,8 +55454,29 @@
       <c r="Q95">
         <v>377</v>
       </c>
+      <c r="R95" t="s">
+        <v>76</v>
+      </c>
+      <c r="S95" t="s">
+        <v>76</v>
+      </c>
+      <c r="T95" t="s">
+        <v>76</v>
+      </c>
+      <c r="U95" t="s">
+        <v>76</v>
+      </c>
+      <c r="V95" t="s">
+        <v>76</v>
+      </c>
+      <c r="W95" t="s">
+        <v>76</v>
+      </c>
+      <c r="X95" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>263</v>
       </c>
@@ -53541,8 +55536,29 @@
       <c r="Q96">
         <v>2269</v>
       </c>
+      <c r="R96" t="s">
+        <v>76</v>
+      </c>
+      <c r="S96" t="s">
+        <v>76</v>
+      </c>
+      <c r="T96" t="s">
+        <v>76</v>
+      </c>
+      <c r="U96" t="s">
+        <v>76</v>
+      </c>
+      <c r="V96" t="s">
+        <v>76</v>
+      </c>
+      <c r="W96" t="s">
+        <v>76</v>
+      </c>
+      <c r="X96" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>265</v>
       </c>
@@ -53602,8 +55618,29 @@
       <c r="Q97">
         <v>546</v>
       </c>
+      <c r="R97" t="s">
+        <v>76</v>
+      </c>
+      <c r="S97" t="s">
+        <v>76</v>
+      </c>
+      <c r="T97" t="s">
+        <v>76</v>
+      </c>
+      <c r="U97" t="s">
+        <v>76</v>
+      </c>
+      <c r="V97" t="s">
+        <v>76</v>
+      </c>
+      <c r="W97" t="s">
+        <v>76</v>
+      </c>
+      <c r="X97" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>267</v>
       </c>
@@ -53663,8 +55700,29 @@
       <c r="Q98">
         <v>1041</v>
       </c>
+      <c r="R98" t="s">
+        <v>76</v>
+      </c>
+      <c r="S98" t="s">
+        <v>76</v>
+      </c>
+      <c r="T98" t="s">
+        <v>76</v>
+      </c>
+      <c r="U98" t="s">
+        <v>76</v>
+      </c>
+      <c r="V98" t="s">
+        <v>76</v>
+      </c>
+      <c r="W98" t="s">
+        <v>76</v>
+      </c>
+      <c r="X98" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>269</v>
       </c>
@@ -53724,8 +55782,29 @@
       <c r="Q99">
         <v>4913</v>
       </c>
+      <c r="R99" t="s">
+        <v>79</v>
+      </c>
+      <c r="S99" t="s">
+        <v>79</v>
+      </c>
+      <c r="T99" t="s">
+        <v>76</v>
+      </c>
+      <c r="U99" t="s">
+        <v>76</v>
+      </c>
+      <c r="V99" t="s">
+        <v>76</v>
+      </c>
+      <c r="W99" t="s">
+        <v>79</v>
+      </c>
+      <c r="X99" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>271</v>
       </c>
@@ -53785,8 +55864,29 @@
       <c r="Q100">
         <v>428</v>
       </c>
+      <c r="R100" t="s">
+        <v>76</v>
+      </c>
+      <c r="S100" t="s">
+        <v>76</v>
+      </c>
+      <c r="T100" t="s">
+        <v>76</v>
+      </c>
+      <c r="U100" t="s">
+        <v>76</v>
+      </c>
+      <c r="V100" t="s">
+        <v>76</v>
+      </c>
+      <c r="W100" t="s">
+        <v>76</v>
+      </c>
+      <c r="X100" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>273</v>
       </c>
@@ -53845,6 +55945,27 @@
       </c>
       <c r="Q101">
         <v>701</v>
+      </c>
+      <c r="R101" t="s">
+        <v>76</v>
+      </c>
+      <c r="S101" t="s">
+        <v>76</v>
+      </c>
+      <c r="T101" t="s">
+        <v>76</v>
+      </c>
+      <c r="U101" t="s">
+        <v>76</v>
+      </c>
+      <c r="V101" t="s">
+        <v>76</v>
+      </c>
+      <c r="W101" t="s">
+        <v>76</v>
+      </c>
+      <c r="X101" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
